--- a/DataMapping.xlsx
+++ b/DataMapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jguerrie.ISSREGION\Downloads\bigdata\projet_data_engineer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87157CC4-EA13-46D1-9B47-C1257ABB5080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{045BAFE6-F1A9-4A1F-8EE5-4F00ADAF07D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{623DB0DC-A59F-4897-9C88-13B229169C2A}"/>
+    <workbookView xWindow="105" yWindow="600" windowWidth="20385" windowHeight="10320" xr2:uid="{623DB0DC-A59F-4897-9C88-13B229169C2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -104,9 +104,6 @@
     <t>Champ cible</t>
   </si>
   <si>
-    <t>durée de la session</t>
-  </si>
-  <si>
     <t>duration</t>
   </si>
   <si>
@@ -198,6 +195,9 @@
   </si>
   <si>
     <t>Calc</t>
+  </si>
+  <si>
+    <t>durée de la session en secondes</t>
   </si>
 </sst>
 </file>
@@ -570,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{659B27D7-3C9B-4BBB-8E67-1BC83A4696EB}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,7 +585,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -602,10 +602,10 @@
         <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -613,10 +613,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
         <v>1</v>
@@ -627,10 +627,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
@@ -641,10 +641,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
         <v>3</v>
@@ -655,13 +655,13 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
@@ -672,13 +672,13 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
@@ -689,13 +689,13 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -706,10 +706,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -723,16 +723,16 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -743,16 +743,16 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -763,16 +763,16 @@
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -783,16 +783,16 @@
         <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" t="s">
         <v>50</v>
       </c>
-      <c r="E13" t="s">
-        <v>51</v>
-      </c>
       <c r="F13" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -803,16 +803,16 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" t="s">
         <v>50</v>
       </c>
-      <c r="E14" t="s">
-        <v>51</v>
-      </c>
       <c r="F14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -820,79 +820,79 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" t="s">
         <v>50</v>
       </c>
-      <c r="E15" t="s">
-        <v>51</v>
-      </c>
       <c r="F15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="D16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" t="s">
         <v>50</v>
       </c>
-      <c r="E16" t="s">
-        <v>51</v>
-      </c>
       <c r="F16" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
